--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,168 +46,183 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>junk</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
+    <t>pay</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>pay</t>
+    <t>di</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>picture</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>one</t>
+    <t>really</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
@@ -217,60 +232,57 @@
     <t>loves</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>cute</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
@@ -278,12 +290,6 @@
   </si>
   <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.9107142857142857</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,16 +790,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -805,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8309859154929577</v>
+        <v>0.796875</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.734375</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7204301075268817</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.7358490566037735</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7027027027027027</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.6278735632183908</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L8">
-        <v>437</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>438</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>259</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6990291262135923</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.5954356846473029</v>
+        <v>0.6048850574712644</v>
       </c>
       <c r="L9">
-        <v>287</v>
+        <v>421</v>
       </c>
       <c r="M9">
-        <v>287</v>
+        <v>422</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>195</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6458333333333334</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.5660377358490566</v>
+        <v>0.5933609958506224</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6363636363636364</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.5476190476190477</v>
+        <v>0.5373256767842494</v>
       </c>
       <c r="L11">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="M11">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,37 +1169,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6134453781512605</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C12">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>48</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D12">
-        <v>73</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>46</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K12">
-        <v>0.5362318840579711</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5662650602409639</v>
+        <v>0.5872093023255814</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,22 +1234,22 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.4518072289156627</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L13">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M13">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1255,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5594202898550724</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C14">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.4403669724770642</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L14">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.4391534391534391</v>
+        <v>0.375</v>
       </c>
       <c r="L15">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4834123222748815</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C16">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1381,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.3666666666666666</v>
+        <v>0.328125</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1405,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,37 +1419,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4803149606299212</v>
+        <v>0.5234375</v>
       </c>
       <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>61</v>
       </c>
-      <c r="D17">
-        <v>61</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>66</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.3426573426573427</v>
+        <v>0.3146853146853147</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4761904761904762</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K18">
-        <v>0.3359375</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4736842105263158</v>
+        <v>0.4786729857819905</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>0.312</v>
+        <v>0.2849462365591398</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3932584269662922</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,31 +1587,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>0.2688172043010753</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3316831683168317</v>
+        <v>0.46875</v>
       </c>
       <c r="C21">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,31 +1637,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>0.2583479789103691</v>
+        <v>0.256</v>
       </c>
       <c r="L21">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>844</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3195876288659794</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,31 +1687,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K22">
-        <v>0.2570281124497992</v>
+        <v>0.2530755711775044</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>185</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,49 +1719,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3061224489795918</v>
+        <v>0.3930348258706468</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K23">
-        <v>0.1782729805013928</v>
+        <v>0.1581001951854261</v>
       </c>
       <c r="L23">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="M23">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2934782608695652</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C24">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1781,31 +1787,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K24">
-        <v>0.1653645833333333</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="L24">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,7 +1819,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2735042735042735</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="C25">
         <v>32</v>
@@ -1831,31 +1837,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K25">
-        <v>0.1559139784946237</v>
+        <v>0.1448467966573816</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1863,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2731958762886598</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1881,31 +1887,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>0.1041666666666667</v>
+        <v>0.1171875</v>
       </c>
       <c r="L26">
         <v>30</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2689873417721519</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,31 +1937,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K27">
-        <v>0.09937888198757763</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>290</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1963,49 +1969,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2663316582914573</v>
+        <v>0.286231884057971</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E28">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>0.09811827956989247</v>
+        <v>0.09664429530201342</v>
       </c>
       <c r="L28">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M28">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N28">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O28">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2013,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2658227848101266</v>
+        <v>0.2731958762886598</v>
       </c>
       <c r="C29">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2031,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>0.09294871794871795</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>0.9399999999999999</v>
@@ -2055,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2063,49 +2069,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2428571428571429</v>
+        <v>0.271356783919598</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>0.07670043415340087</v>
+        <v>0.05738880918220947</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="N30">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="O30">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>638</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2113,49 +2119,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2380952380952381</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C31">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F31">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>512</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31">
-        <v>0.06474820143884892</v>
-      </c>
-      <c r="L31">
-        <v>36</v>
-      </c>
-      <c r="M31">
-        <v>45</v>
-      </c>
-      <c r="N31">
-        <v>0.8</v>
-      </c>
-      <c r="O31">
-        <v>0.2</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>520</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2163,49 +2145,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2347417840375587</v>
+        <v>0.2563291139240506</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>163</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32">
-        <v>0.06339468302658487</v>
-      </c>
-      <c r="L32">
-        <v>31</v>
-      </c>
-      <c r="M32">
-        <v>42</v>
-      </c>
-      <c r="N32">
-        <v>0.74</v>
-      </c>
-      <c r="O32">
-        <v>0.26</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>458</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2213,25 +2171,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2276657060518732</v>
+        <v>0.25</v>
       </c>
       <c r="C33">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F33">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>268</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2239,13 +2197,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2240437158469945</v>
+        <v>0.25</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2257,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2265,25 +2223,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2222222222222222</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E35">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>350</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2291,25 +2249,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2169312169312169</v>
+        <v>0.2399403874813711</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>148</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2317,25 +2275,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2165605095541401</v>
+        <v>0.2305475504322766</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>123</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2343,13 +2301,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.203125</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D38">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2361,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2369,19 +2327,19 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1907894736842105</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2395,25 +2353,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1764705882352941</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2421,25 +2379,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1735537190082645</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E41">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>200</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2447,13 +2405,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1714285714285714</v>
+        <v>0.1875</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2465,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2473,25 +2431,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1673003802281369</v>
+        <v>0.1836283185840708</v>
       </c>
       <c r="C43">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E43">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="F43">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>219</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2499,25 +2457,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1648351648351648</v>
+        <v>0.1673003802281369</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>304</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2525,25 +2483,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1444695259593679</v>
+        <v>0.1629834254143646</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D45">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E45">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F45">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>379</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2551,25 +2509,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1363636363636364</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E46">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2577,25 +2535,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1214642262895175</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="C47">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E47">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="F47">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>528</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2603,25 +2561,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1163636363636364</v>
+        <v>0.1444043321299639</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E48">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F48">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2629,25 +2587,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1054313099041534</v>
+        <v>0.143312101910828</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E49">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F49">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2655,25 +2613,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09273570324574962</v>
+        <v>0.1260364842454395</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D50">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E50">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>587</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2681,25 +2639,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0924170616113744</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D51">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="F51">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2707,25 +2665,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.08433734939759036</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D52">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E52">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="F52">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>380</v>
+        <v>700</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2733,25 +2691,129 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07652399481193256</v>
+        <v>0.09442724458204334</v>
       </c>
       <c r="C53">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>0.13</v>
+      </c>
+      <c r="F53">
+        <v>0.87</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D53">
-        <v>82</v>
-      </c>
-      <c r="E53">
-        <v>0.28</v>
-      </c>
-      <c r="F53">
-        <v>0.72</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>712</v>
+      <c r="B54">
+        <v>0.08</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <v>0.09</v>
+      </c>
+      <c r="F54">
+        <v>0.91</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.07529411764705882</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>41</v>
+      </c>
+      <c r="E55">
+        <v>0.22</v>
+      </c>
+      <c r="F55">
+        <v>0.78</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.07416267942583732</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>42</v>
+      </c>
+      <c r="E56">
+        <v>0.26</v>
+      </c>
+      <c r="F56">
+        <v>0.74</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.07032967032967033</v>
+      </c>
+      <c r="C57">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>46</v>
+      </c>
+      <c r="E57">
+        <v>0.3</v>
+      </c>
+      <c r="F57">
+        <v>0.7</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
